--- a/dashboard_must_webiste/arquivos/tabelas_extraidas/resultado_tabelas_MUST_ONS.xlsx
+++ b/dashboard_must_webiste/arquivos/tabelas_extraidas/resultado_tabelas_MUST_ONS.xlsx
@@ -7,12 +7,12 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet_SUL SUDESTE_minuta_" sheetId="1" r:id="rId1"/>
-    <sheet name="sheet_CUST-2002-114-64_ CPFL_Pa" sheetId="2" r:id="rId2"/>
-    <sheet name="sheet_PIRATININGA -" sheetId="3" r:id="rId3"/>
-    <sheet name="sheet_CUST-2002-119-115 - NEOEN" sheetId="4" r:id="rId4"/>
-    <sheet name="sheet_CUST-2002-121-40_ Eletrop" sheetId="5" r:id="rId5"/>
-    <sheet name="sheet_JAGUARI -" sheetId="6" r:id="rId6"/>
+    <sheet name="sheet_SUL SUDESTE" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet_CPFL PAULISTA" sheetId="2" r:id="rId2"/>
+    <sheet name="sheet_PIRATININGA" sheetId="3" r:id="rId3"/>
+    <sheet name="sheet_NEOENERGIA ELEKTRO" sheetId="4" r:id="rId4"/>
+    <sheet name="sheet_ELETROPAULO" sheetId="5" r:id="rId5"/>
+    <sheet name="sheet_JAGUARI" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
